--- a/data/trans_orig/P19C05-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>73715</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>59374</v>
+        <v>60423</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>90901</v>
+        <v>90057</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1861891260640648</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.149966852172821</v>
+        <v>0.1526155575066691</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2295965733297962</v>
+        <v>0.2274648299666271</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>156</v>
@@ -765,19 +765,19 @@
         <v>160011</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>137749</v>
+        <v>139079</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>182581</v>
+        <v>182135</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2190116331997084</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1885409722672555</v>
+        <v>0.1903607150729562</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2499036504733647</v>
+        <v>0.2492930903790486</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>230</v>
@@ -786,19 +786,19 @@
         <v>233726</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>206399</v>
+        <v>209227</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>259758</v>
+        <v>264606</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2074761910352527</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.183218050967261</v>
+        <v>0.1857287566735208</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2305844981442373</v>
+        <v>0.2348875234566956</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>322200</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>305014</v>
+        <v>305858</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>336541</v>
+        <v>335492</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8138108739359352</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7704034266702037</v>
+        <v>0.772535170033373</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8500331478271791</v>
+        <v>0.8473844424933309</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>545</v>
@@ -836,19 +836,19 @@
         <v>570595</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>548025</v>
+        <v>548471</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>592857</v>
+        <v>591527</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7809883668002916</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7500963495266351</v>
+        <v>0.7507069096209518</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8114590277327445</v>
+        <v>0.8096392849270438</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>865</v>
@@ -857,19 +857,19 @@
         <v>892795</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>866763</v>
+        <v>861915</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>920122</v>
+        <v>917294</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7925238089647473</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7694155018557631</v>
+        <v>0.7651124765433044</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.816781949032739</v>
+        <v>0.8142712433264792</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>111330</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>93516</v>
+        <v>91022</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>132299</v>
+        <v>132048</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1393147170214937</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1170225196477326</v>
+        <v>0.1139023687417104</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1655544341077958</v>
+        <v>0.1652406758254455</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>123</v>
@@ -982,19 +982,19 @@
         <v>127872</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>109287</v>
+        <v>109773</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>151833</v>
+        <v>151384</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1504479704871209</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1285809044081469</v>
+        <v>0.1291536715156191</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1786386315202765</v>
+        <v>0.1781102740433645</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>235</v>
@@ -1003,19 +1003,19 @@
         <v>239202</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>209814</v>
+        <v>210765</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>268426</v>
+        <v>269424</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.145052889458169</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1272319543560768</v>
+        <v>0.1278086441094118</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1627741292485241</v>
+        <v>0.1633792818500053</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>687795</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>666826</v>
+        <v>667077</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>705609</v>
+        <v>708103</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8606852829785062</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8344455658922042</v>
+        <v>0.8347593241745546</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8829774803522663</v>
+        <v>0.8860976312582896</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>704</v>
@@ -1053,19 +1053,19 @@
         <v>722072</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>698111</v>
+        <v>698560</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>740657</v>
+        <v>740171</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8495520295128791</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8213613684797233</v>
+        <v>0.8218897259566355</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8714190955918528</v>
+        <v>0.8708463284843808</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1372</v>
@@ -1074,19 +1074,19 @@
         <v>1409867</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1380643</v>
+        <v>1379645</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1439255</v>
+        <v>1438304</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8549471105418309</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8372258707514759</v>
+        <v>0.8366207181499947</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8727680456439234</v>
+        <v>0.8721913558905884</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>102023</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>85306</v>
+        <v>85650</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>122417</v>
+        <v>124139</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1144343345492078</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09568399767056862</v>
+        <v>0.09606984279311813</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1373089120783614</v>
+        <v>0.1392404813190846</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>111</v>
@@ -1199,19 +1199,19 @@
         <v>112674</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91813</v>
+        <v>93362</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>132803</v>
+        <v>133608</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1358128295751645</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1106685459266434</v>
+        <v>0.1125348283855823</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1600760966147392</v>
+        <v>0.1610467356156046</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>213</v>
@@ -1220,19 +1220,19 @@
         <v>214697</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>188794</v>
+        <v>188037</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>244816</v>
+        <v>242605</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1247390462825793</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1096896846257575</v>
+        <v>0.1092495161397257</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1422387022021884</v>
+        <v>0.1409536150964208</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>789519</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>769125</v>
+        <v>767403</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>806236</v>
+        <v>805892</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8855656654507922</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8626910879216385</v>
+        <v>0.8607595186809154</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9043160023294313</v>
+        <v>0.9039301572068819</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>711</v>
@@ -1270,19 +1270,19 @@
         <v>716950</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>696821</v>
+        <v>696016</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>737811</v>
+        <v>736262</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8641871704248355</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8399239033852608</v>
+        <v>0.8389532643843955</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8893314540733567</v>
+        <v>0.8874651716144177</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1483</v>
@@ -1291,19 +1291,19 @@
         <v>1506469</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1476350</v>
+        <v>1478561</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1532372</v>
+        <v>1533129</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8752609537174207</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8577612977978115</v>
+        <v>0.8590463849035791</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8903103153742425</v>
+        <v>0.8907504838602741</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>41108</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29547</v>
+        <v>29640</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55193</v>
+        <v>54639</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.120918555365987</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08691306986859949</v>
+        <v>0.0871864065386197</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1623493433919141</v>
+        <v>0.1607223439261684</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -1416,19 +1416,19 @@
         <v>33517</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23213</v>
+        <v>24707</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45206</v>
+        <v>47271</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1202969964676656</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08331296468107202</v>
+        <v>0.08867624289131698</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1622480242345327</v>
+        <v>0.1696615833119777</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>76</v>
@@ -1437,19 +1437,19 @@
         <v>74625</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>59660</v>
+        <v>60350</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91352</v>
+        <v>93771</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1206385933175029</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09644581114404428</v>
+        <v>0.09756188616962744</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1476784329847976</v>
+        <v>0.1515899054739786</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>298854</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>284769</v>
+        <v>285323</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>310415</v>
+        <v>310322</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8790814446340129</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8376506566080857</v>
+        <v>0.8392776560738316</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9130869301314003</v>
+        <v>0.91281359346138</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>243</v>
@@ -1487,19 +1487,19 @@
         <v>245105</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>233416</v>
+        <v>231351</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>255409</v>
+        <v>253915</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8797030035323344</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8377519757654676</v>
+        <v>0.8303384166880208</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.916687035318928</v>
+        <v>0.911323757108683</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>532</v>
@@ -1508,19 +1508,19 @@
         <v>543959</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>527232</v>
+        <v>524813</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>558924</v>
+        <v>558234</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8793614066824971</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8523215670152025</v>
+        <v>0.8484100945260215</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9035541888559557</v>
+        <v>0.9024381138303726</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>328176</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>296575</v>
+        <v>295475</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>360210</v>
+        <v>364161</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1352440611968758</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1222212467656501</v>
+        <v>0.1217680282182847</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1484456733775641</v>
+        <v>0.1500738976388408</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>425</v>
@@ -1633,19 +1633,19 @@
         <v>434075</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>399221</v>
+        <v>398629</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>473617</v>
+        <v>469676</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1614382517986198</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1484759046264519</v>
+        <v>0.1482556829296289</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1761447448890488</v>
+        <v>0.1746788429581189</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>754</v>
@@ -1654,19 +1654,19 @@
         <v>762250</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>713296</v>
+        <v>704269</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>810804</v>
+        <v>810427</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1490126181337039</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1394425332979332</v>
+        <v>0.1376778343384068</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1585043782175969</v>
+        <v>0.1584306429755566</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2098367</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2066333</v>
+        <v>2062382</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2129968</v>
+        <v>2131068</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8647559388031242</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8515543266224359</v>
+        <v>0.8499261023611594</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8777787532343503</v>
+        <v>0.8782319717817153</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2203</v>
@@ -1704,19 +1704,19 @@
         <v>2254721</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2215179</v>
+        <v>2219120</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2289575</v>
+        <v>2290167</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8385617482013802</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8238552551109514</v>
+        <v>0.825321157041881</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8515240953735482</v>
+        <v>0.8517443170703711</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4252</v>
@@ -1725,19 +1725,19 @@
         <v>4353090</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4304536</v>
+        <v>4304913</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4402044</v>
+        <v>4411071</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8509873818662961</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8414956217824032</v>
+        <v>0.8415693570244432</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8605574667020668</v>
+        <v>0.8623221656615931</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>120818</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>98981</v>
+        <v>101184</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>143540</v>
+        <v>144043</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1463770865559897</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1199203550483759</v>
+        <v>0.1225891296056181</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1739052576508436</v>
+        <v>0.1745143951500997</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>149</v>
@@ -2090,19 +2090,19 @@
         <v>162036</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>139483</v>
+        <v>139290</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>187745</v>
+        <v>188531</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1710196256449859</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.147216383405142</v>
+        <v>0.1470127080022977</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1981544471641055</v>
+        <v>0.1989840282958378</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>254</v>
@@ -2111,19 +2111,19 @@
         <v>282854</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>252659</v>
+        <v>249948</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>317909</v>
+        <v>316293</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1595467927395922</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1425148254392237</v>
+        <v>0.1409854765026261</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1793199845031971</v>
+        <v>0.1784084318540722</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>704573</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>681851</v>
+        <v>681348</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>726410</v>
+        <v>724207</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8536229134440103</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8260947423491566</v>
+        <v>0.8254856048499003</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8800796449516242</v>
+        <v>0.8774108703943819</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>724</v>
@@ -2161,19 +2161,19 @@
         <v>785433</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>759724</v>
+        <v>758938</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>807986</v>
+        <v>808179</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8289803743550141</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8018455528358943</v>
+        <v>0.8010159717041622</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.852783616594858</v>
+        <v>0.8529872919977023</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1392</v>
@@ -2182,19 +2182,19 @@
         <v>1490006</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1454951</v>
+        <v>1456567</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1520201</v>
+        <v>1522912</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8404532072604077</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8206800154968034</v>
+        <v>0.8215915681459283</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8574851745607767</v>
+        <v>0.8590145234973742</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>112833</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>92883</v>
+        <v>93026</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>134164</v>
+        <v>134516</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1342019690613981</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1104736036466758</v>
+        <v>0.1106432210484404</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1595722139275193</v>
+        <v>0.1599907032332245</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>174</v>
@@ -2307,19 +2307,19 @@
         <v>188714</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>162859</v>
+        <v>163446</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>216455</v>
+        <v>218072</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1960121145247343</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1691568962245348</v>
+        <v>0.1697668219842641</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2248256112215608</v>
+        <v>0.2265056183510457</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>275</v>
@@ -2328,19 +2328,19 @@
         <v>301547</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>272591</v>
+        <v>269964</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>338662</v>
+        <v>335824</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1671974967471959</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1511423860422342</v>
+        <v>0.1496856298379241</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1877762573248435</v>
+        <v>0.1862024943108531</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>727940</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>706609</v>
+        <v>706257</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>747890</v>
+        <v>747747</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8657980309386019</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8404277860724807</v>
+        <v>0.8400092967667755</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8895263963533241</v>
+        <v>0.8893567789515596</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>722</v>
@@ -2378,19 +2378,19 @@
         <v>774053</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>746312</v>
+        <v>744695</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>799908</v>
+        <v>799321</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8039878854752658</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7751743887784392</v>
+        <v>0.7734943816489543</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8308431037754651</v>
+        <v>0.8302331780157358</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1421</v>
@@ -2399,19 +2399,19 @@
         <v>1501993</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1464878</v>
+        <v>1467716</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1530949</v>
+        <v>1533576</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8328025032528041</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8122237426751564</v>
+        <v>0.813797505689147</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8488576139577658</v>
+        <v>0.8503143701620762</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>133042</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>112866</v>
+        <v>112683</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>157408</v>
+        <v>155386</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.170614942106693</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1447412386610893</v>
+        <v>0.1445064262564239</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2018629515404886</v>
+        <v>0.1992693286333636</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>145</v>
@@ -2524,19 +2524,19 @@
         <v>158086</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>134107</v>
+        <v>135475</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>181936</v>
+        <v>182370</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1961131913517381</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1663655136337938</v>
+        <v>0.1680632875027887</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2257001685862797</v>
+        <v>0.2262380223726664</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>268</v>
@@ -2545,19 +2545,19 @@
         <v>291128</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>261516</v>
+        <v>260897</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>322952</v>
+        <v>325342</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1835756621765814</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.164903476419152</v>
+        <v>0.1645128481622422</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2036429259634268</v>
+        <v>0.2051495338446406</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>646735</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>622369</v>
+        <v>624391</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>666911</v>
+        <v>667094</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.829385057893307</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7981370484595114</v>
+        <v>0.8007306713666364</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8552587613389107</v>
+        <v>0.8554935737435764</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>610</v>
@@ -2595,19 +2595,19 @@
         <v>648012</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>624162</v>
+        <v>623728</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>671991</v>
+        <v>670623</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8038868086482619</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7742998314137201</v>
+        <v>0.7737619776273332</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.833634486366206</v>
+        <v>0.8319367124972111</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1221</v>
@@ -2616,19 +2616,19 @@
         <v>1294747</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1262923</v>
+        <v>1260533</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1324359</v>
+        <v>1324978</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8164243378234186</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7963570740365732</v>
+        <v>0.7948504661553595</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8350965235808478</v>
+        <v>0.8354871518377579</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>66381</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51442</v>
+        <v>52971</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82190</v>
+        <v>84557</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1461501577128455</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1132580537978008</v>
+        <v>0.1166260547204818</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1809555004096807</v>
+        <v>0.186166619155401</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -2741,19 +2741,19 @@
         <v>63758</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48621</v>
+        <v>49237</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>80921</v>
+        <v>81741</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1534638155414933</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1170302755230076</v>
+        <v>0.1185128904695707</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1947766713582511</v>
+        <v>0.1967507233923729</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>120</v>
@@ -2762,19 +2762,19 @@
         <v>130139</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>108291</v>
+        <v>108405</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>154214</v>
+        <v>151797</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1496440819612365</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1245220111148422</v>
+        <v>0.124652662318004</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.177328085636363</v>
+        <v>0.1745486413239586</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>387817</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>372008</v>
+        <v>369641</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>402756</v>
+        <v>401227</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8538498422871544</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8190444995903192</v>
+        <v>0.8138333808445991</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8867419462021991</v>
+        <v>0.8833739452795183</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>320</v>
@@ -2812,19 +2812,19 @@
         <v>351699</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>334536</v>
+        <v>333716</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>366836</v>
+        <v>366220</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8465361844585066</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8052233286417491</v>
+        <v>0.803249276607627</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8829697244769925</v>
+        <v>0.8814871095304293</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>674</v>
@@ -2833,19 +2833,19 @@
         <v>739516</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>715441</v>
+        <v>717858</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>761364</v>
+        <v>761250</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8503559180387635</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.822671914363637</v>
+        <v>0.8254513586760414</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8754779888851577</v>
+        <v>0.875347337681996</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>433075</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>393084</v>
+        <v>395377</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>473761</v>
+        <v>475618</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1493288544708038</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1355397585131843</v>
+        <v>0.1363304500661594</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1633579716633542</v>
+        <v>0.1639984278369482</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>526</v>
@@ -2958,19 +2958,19 @@
         <v>572594</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>526046</v>
+        <v>528186</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>617996</v>
+        <v>618153</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1828327138497527</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1679696686807151</v>
+        <v>0.1686532037471694</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1973301101358245</v>
+        <v>0.1973800910300473</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>917</v>
@@ -2979,19 +2979,19 @@
         <v>1005668</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>938201</v>
+        <v>951419</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1063929</v>
+        <v>1067605</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.166724127168814</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1555390700834194</v>
+        <v>0.1577304659274218</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1763829239874666</v>
+        <v>0.1769922046938095</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2467065</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2426379</v>
+        <v>2424522</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2507056</v>
+        <v>2504763</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8506711455291962</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8366420283366459</v>
+        <v>0.8360015721630518</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8644602414868158</v>
+        <v>0.8636695499338406</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2376</v>
@@ -3029,19 +3029,19 @@
         <v>2559196</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2513794</v>
+        <v>2513637</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2605744</v>
+        <v>2603604</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8171672861502474</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8026698898641763</v>
+        <v>0.8026199089699533</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8320303313192851</v>
+        <v>0.8313467962528306</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4708</v>
@@ -3050,19 +3050,19 @@
         <v>5026262</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4968001</v>
+        <v>4964325</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5093729</v>
+        <v>5080511</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.833275872831186</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8236170760125334</v>
+        <v>0.8230077953061909</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8444609299165807</v>
+        <v>0.8422695340725785</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>71418</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57009</v>
+        <v>56263</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>89970</v>
+        <v>89594</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0910528400547771</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07268209039375777</v>
+        <v>0.07173042172140688</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1147046463729736</v>
+        <v>0.1142249899596168</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>87</v>
@@ -3415,19 +3415,19 @@
         <v>95261</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>75725</v>
+        <v>76883</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>116469</v>
+        <v>116413</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1032403559936202</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08206813450377783</v>
+        <v>0.083322213365058</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1262246197819419</v>
+        <v>0.1261637942389292</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>157</v>
@@ -3436,19 +3436,19 @@
         <v>166680</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>141118</v>
+        <v>141961</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>193523</v>
+        <v>192054</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09764046689423651</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0826667232527097</v>
+        <v>0.08316004498292298</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1133648542572625</v>
+        <v>0.1125043392949601</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>712945</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>694393</v>
+        <v>694769</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>727354</v>
+        <v>728100</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9089471599452229</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8852953536270269</v>
+        <v>0.8857750100403832</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9273179096062425</v>
+        <v>0.9282695782785931</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>800</v>
@@ -3486,19 +3486,19 @@
         <v>827453</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>806245</v>
+        <v>806301</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>846989</v>
+        <v>845831</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8967596440063799</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8737753802180581</v>
+        <v>0.8738362057610708</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9179318654962222</v>
+        <v>0.9166777866349421</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1467</v>
@@ -3507,19 +3507,19 @@
         <v>1540397</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1513554</v>
+        <v>1515023</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1565959</v>
+        <v>1565116</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9023595331057634</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8866351457427375</v>
+        <v>0.8874956607050408</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9173332767472905</v>
+        <v>0.9168399550170772</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>83474</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67344</v>
+        <v>67672</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103970</v>
+        <v>103248</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1168584576337194</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09427783383264751</v>
+        <v>0.09473633043297913</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1455516745698922</v>
+        <v>0.144540275808271</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>92</v>
@@ -3632,19 +3632,19 @@
         <v>103211</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>83791</v>
+        <v>85385</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>126477</v>
+        <v>123738</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1224792614288325</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09943317980559664</v>
+        <v>0.1013252440957212</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1500880762592004</v>
+        <v>0.1468385162775405</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>170</v>
@@ -3653,19 +3653,19 @@
         <v>186685</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>160432</v>
+        <v>159980</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>214192</v>
+        <v>214335</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1199005604400245</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.10303908967869</v>
+        <v>0.1027487128495077</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1375674216878443</v>
+        <v>0.1376590242958377</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>630843</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>610347</v>
+        <v>611069</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>646973</v>
+        <v>646645</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8831415423662806</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8544483254301078</v>
+        <v>0.855459724191729</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9057221661673525</v>
+        <v>0.905263669567021</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>706</v>
@@ -3703,19 +3703,19 @@
         <v>739471</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>716205</v>
+        <v>718944</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>758891</v>
+        <v>757297</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8775207385711675</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8499119237407996</v>
+        <v>0.8531614837224596</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9005668201944037</v>
+        <v>0.8986747559042787</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1322</v>
@@ -3724,19 +3724,19 @@
         <v>1370314</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1342807</v>
+        <v>1342664</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1396567</v>
+        <v>1397019</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8800994395599755</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8624325783121557</v>
+        <v>0.862340975704162</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.89696091032131</v>
+        <v>0.8972512871504922</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>75314</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60644</v>
+        <v>60296</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>94504</v>
+        <v>92750</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.105173278520676</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08468772529478652</v>
+        <v>0.08420131097910544</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.131972170230937</v>
+        <v>0.1295226925478586</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -3849,19 +3849,19 @@
         <v>77406</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>61144</v>
+        <v>61181</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>96296</v>
+        <v>96461</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1174659847841716</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09278712826566238</v>
+        <v>0.09284291591267863</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.146131402366825</v>
+        <v>0.1463822676851392</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>143</v>
@@ -3870,19 +3870,19 @@
         <v>152720</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>128324</v>
+        <v>129749</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>176251</v>
+        <v>177258</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1110643025686746</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.093322602532194</v>
+        <v>0.094358586389025</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.12817722991129</v>
+        <v>0.1289093769600572</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>640777</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>621587</v>
+        <v>623341</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>655447</v>
+        <v>655795</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.894826721479324</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8680278297690629</v>
+        <v>0.8704773074521415</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9153122747052131</v>
+        <v>0.9157986890208946</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>559</v>
@@ -3920,19 +3920,19 @@
         <v>581563</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>562673</v>
+        <v>562508</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>597825</v>
+        <v>597788</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8825340152158284</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8538685976331747</v>
+        <v>0.8536177323148608</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9072128717343366</v>
+        <v>0.9071570840873211</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1168</v>
@@ -3941,19 +3941,19 @@
         <v>1222340</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1198809</v>
+        <v>1197802</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1246736</v>
+        <v>1245311</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8889356974313254</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.87182277008871</v>
+        <v>0.8710906230399427</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9066773974678058</v>
+        <v>0.9056414136109746</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>47641</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36103</v>
+        <v>34988</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63163</v>
+        <v>62019</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1108561458350347</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08400923800273898</v>
+        <v>0.08141363068831504</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1469736307668234</v>
+        <v>0.144311963562731</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -4066,19 +4066,19 @@
         <v>56095</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42879</v>
+        <v>42121</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73677</v>
+        <v>73298</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1300438519879462</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09940628173445544</v>
+        <v>0.09764877263727031</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1708043845512738</v>
+        <v>0.1699266669315881</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>94</v>
@@ -4087,19 +4087,19 @@
         <v>103736</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85489</v>
+        <v>85284</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>124985</v>
+        <v>125065</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1204678010624926</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.099277666024112</v>
+        <v>0.09904002781972164</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1451448995620024</v>
+        <v>0.1452370561285201</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>382113</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>366591</v>
+        <v>367735</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>393651</v>
+        <v>394766</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8891438541649653</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8530263692331765</v>
+        <v>0.855688036437269</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.915990761997261</v>
+        <v>0.9185863693116849</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>355</v>
@@ -4137,19 +4137,19 @@
         <v>375257</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>357675</v>
+        <v>358054</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>388473</v>
+        <v>389231</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8699561480120538</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8291956154487262</v>
+        <v>0.8300733330684118</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9005937182655446</v>
+        <v>0.9023512273627295</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>707</v>
@@ -4158,19 +4158,19 @@
         <v>757371</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>736122</v>
+        <v>736042</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>775618</v>
+        <v>775823</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8795321989375074</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8548551004379976</v>
+        <v>0.8547629438714799</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.900722333975888</v>
+        <v>0.9009599721802783</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>277847</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>241758</v>
+        <v>244214</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>309194</v>
+        <v>310313</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.105064979668364</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.091418330295868</v>
+        <v>0.09234704616058205</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1169186297336882</v>
+        <v>0.1173417399292251</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>297</v>
@@ -4283,19 +4283,19 @@
         <v>331974</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>298093</v>
+        <v>295928</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>368874</v>
+        <v>368963</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1162487452114673</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1043845557982929</v>
+        <v>0.1036266795906789</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1291703822711518</v>
+        <v>0.129201556934445</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>564</v>
@@ -4304,19 +4304,19 @@
         <v>609821</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>560841</v>
+        <v>559959</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>655566</v>
+        <v>655334</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1108715722351557</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1019665182398624</v>
+        <v>0.1018062372426116</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1191886079870186</v>
+        <v>0.1191464592688404</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2366679</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2335332</v>
+        <v>2334213</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2402768</v>
+        <v>2400312</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.894935020331636</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8830813702663118</v>
+        <v>0.8826582600707751</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9085816697041318</v>
+        <v>0.907652953839418</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2420</v>
@@ -4354,19 +4354,19 @@
         <v>2523743</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2486843</v>
+        <v>2486754</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2557624</v>
+        <v>2559789</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8837512547885327</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8708296177288484</v>
+        <v>0.8707984430655552</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8956154442017071</v>
+        <v>0.8963733204093215</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4664</v>
@@ -4375,19 +4375,19 @@
         <v>4890422</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4844677</v>
+        <v>4844909</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4939402</v>
+        <v>4940284</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8891284277648444</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8808113920129814</v>
+        <v>0.8808535407311596</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8980334817601375</v>
+        <v>0.8981937627573882</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>32160</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22075</v>
+        <v>23563</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42368</v>
+        <v>42945</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07110610545136758</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04880703645310404</v>
+        <v>0.05209832074336614</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09367469376402898</v>
+        <v>0.09495142479150558</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>130</v>
@@ -4740,19 +4740,19 @@
         <v>77179</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64283</v>
+        <v>64430</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>89730</v>
+        <v>91384</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1309906599520016</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1091038370274409</v>
+        <v>0.1093523057466799</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1522926687451468</v>
+        <v>0.1550999759724885</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>168</v>
@@ -4761,19 +4761,19 @@
         <v>109339</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>93674</v>
+        <v>94180</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>125712</v>
+        <v>128472</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1049845119172213</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08994373436766742</v>
+        <v>0.0904295762177186</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1207052669346473</v>
+        <v>0.123355331739951</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>420124</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>409916</v>
+        <v>409339</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>430209</v>
+        <v>428721</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9288938945486325</v>
+        <v>0.9288938945486324</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9063253062359705</v>
+        <v>0.9050485752084947</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9511929635468959</v>
+        <v>0.9479016792566338</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>687</v>
@@ -4811,19 +4811,19 @@
         <v>512014</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>499463</v>
+        <v>497809</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>524910</v>
+        <v>524763</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8690093400479985</v>
+        <v>0.8690093400479986</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8477073312548532</v>
+        <v>0.8449000240275115</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8908961629725591</v>
+        <v>0.8906476942533202</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1061</v>
@@ -4832,19 +4832,19 @@
         <v>932138</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>915765</v>
+        <v>913005</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>947803</v>
+        <v>947297</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8950154880827786</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8792947330653527</v>
+        <v>0.8766446682600491</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9100562656323324</v>
+        <v>0.9095704237822813</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>96041</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80281</v>
+        <v>79962</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>113965</v>
+        <v>114620</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1042596186974257</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08715081609402053</v>
+        <v>0.08680494648258946</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1237175640756627</v>
+        <v>0.1244284545747686</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>222</v>
@@ -4957,19 +4957,19 @@
         <v>126020</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110626</v>
+        <v>109436</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>143593</v>
+        <v>142944</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1159202096595603</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1017599233755851</v>
+        <v>0.1006653477871401</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.132085051026321</v>
+        <v>0.1314877264711226</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>342</v>
@@ -4978,19 +4978,19 @@
         <v>222061</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>196238</v>
+        <v>200264</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>247771</v>
+        <v>248174</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1105717139145889</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0977138171787839</v>
+        <v>0.09971861464523826</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1233737466435216</v>
+        <v>0.12357438035636</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>825127</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>807203</v>
+        <v>806548</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>840887</v>
+        <v>841206</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8957403813025744</v>
+        <v>0.8957403813025743</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8762824359243373</v>
+        <v>0.8755715454252315</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9128491839059796</v>
+        <v>0.9131950535174104</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1345</v>
@@ -5028,19 +5028,19 @@
         <v>961108</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>943535</v>
+        <v>944184</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>976502</v>
+        <v>977692</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8840797903404397</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.867914948973679</v>
+        <v>0.8685122735288774</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8982400766244149</v>
+        <v>0.8993346522128601</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2105</v>
@@ -5049,19 +5049,19 @@
         <v>1786235</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1760525</v>
+        <v>1760122</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1812058</v>
+        <v>1808032</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8894282860854111</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8766262533564784</v>
+        <v>0.8764256196436402</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9022861828212162</v>
+        <v>0.9002813853547618</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>111044</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>94473</v>
+        <v>93639</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>133402</v>
+        <v>131179</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1083446182594901</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09217611229557816</v>
+        <v>0.09136240092917119</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.130158506788528</v>
+        <v>0.1279896618204155</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>204</v>
@@ -5174,19 +5174,19 @@
         <v>119615</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>104601</v>
+        <v>103955</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>137982</v>
+        <v>138322</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1161190459720912</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1015445119296706</v>
+        <v>0.1009170978230271</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1339493029685436</v>
+        <v>0.1342794434019624</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>342</v>
@@ -5195,19 +5195,19 @@
         <v>230659</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>205590</v>
+        <v>205862</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>256631</v>
+        <v>256744</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1122416397671245</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1000426752763452</v>
+        <v>0.1001749430353482</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1248797629029996</v>
+        <v>0.1249349730542412</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>913874</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>891516</v>
+        <v>893739</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>930445</v>
+        <v>931279</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8916553817405101</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8698414932114721</v>
+        <v>0.8720103381795847</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.907823887704422</v>
+        <v>0.9086375990708289</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1289</v>
@@ -5245,19 +5245,19 @@
         <v>910488</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>892121</v>
+        <v>891781</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>925502</v>
+        <v>926148</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8838809540279088</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8660506970314558</v>
+        <v>0.8657205565980373</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8984554880703292</v>
+        <v>0.8990829021769725</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2158</v>
@@ -5266,19 +5266,19 @@
         <v>1824363</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1798391</v>
+        <v>1798278</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1849432</v>
+        <v>1849160</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8877583602328755</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8751202370970003</v>
+        <v>0.8750650269457587</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.899957324723655</v>
+        <v>0.8998250569646519</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>111206</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>91980</v>
+        <v>93281</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>129494</v>
+        <v>134197</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1170589323919276</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09682118217875073</v>
+        <v>0.09819071254530605</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1363096981736633</v>
+        <v>0.1412604028756941</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>206</v>
@@ -5391,19 +5391,19 @@
         <v>109676</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>95479</v>
+        <v>93681</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124966</v>
+        <v>124323</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1245262769861343</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1084065077328501</v>
+        <v>0.1063650465920736</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1418860501190218</v>
+        <v>0.1411564017735747</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>342</v>
@@ -5412,19 +5412,19 @@
         <v>220882</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>194330</v>
+        <v>194941</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>243752</v>
+        <v>244768</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1206513713658331</v>
+        <v>0.1206513713658332</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1061478375388161</v>
+        <v>0.1064818407474343</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1331437427234116</v>
+        <v>0.1336986624239492</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>838792</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>820504</v>
+        <v>815801</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>858018</v>
+        <v>856717</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8829410676080726</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8636903018263367</v>
+        <v>0.8587395971243064</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9031788178212493</v>
+        <v>0.9018092874546942</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1077</v>
@@ -5462,19 +5462,19 @@
         <v>771070</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>755780</v>
+        <v>756423</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>785267</v>
+        <v>787065</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8754737230138658</v>
+        <v>0.8754737230138657</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8581139498809784</v>
+        <v>0.8588435982264253</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8915934922671501</v>
+        <v>0.8936349534079265</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1862</v>
@@ -5483,19 +5483,19 @@
         <v>1609862</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1586992</v>
+        <v>1585976</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1636414</v>
+        <v>1635803</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8793486286341667</v>
+        <v>0.8793486286341669</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8668562572765885</v>
+        <v>0.8663013375760508</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8938521624611838</v>
+        <v>0.8935181592525656</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>350451</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>319441</v>
+        <v>314072</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>386442</v>
+        <v>383832</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1046631944990079</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09540203511162682</v>
+        <v>0.09379840490157998</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1154120149235947</v>
+        <v>0.1146324613603817</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>762</v>
@@ -5608,19 +5608,19 @@
         <v>432490</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>397844</v>
+        <v>404487</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>462606</v>
+        <v>462164</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1205656510724483</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1109074483590546</v>
+        <v>0.1127593059755471</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1289613168343119</v>
+        <v>0.1288379687333911</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1194</v>
@@ -5629,19 +5629,19 @@
         <v>782941</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>736863</v>
+        <v>738090</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>826449</v>
+        <v>833657</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1128881981543854</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.106244516987669</v>
+        <v>0.1064213616391599</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1191614222924419</v>
+        <v>0.1202007214814588</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2997917</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2961926</v>
+        <v>2964536</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3028927</v>
+        <v>3034296</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.895336805500992</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8845879850764051</v>
+        <v>0.8853675386396183</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9045979648883732</v>
+        <v>0.9062015950984199</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4398</v>
@@ -5679,19 +5679,19 @@
         <v>3154681</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3124565</v>
+        <v>3125007</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3189327</v>
+        <v>3182684</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8794343489275516</v>
+        <v>0.8794343489275518</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8710386831656887</v>
+        <v>0.8711620312666086</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.889092551640946</v>
+        <v>0.8872406940244528</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7186</v>
@@ -5700,19 +5700,19 @@
         <v>6152598</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6109090</v>
+        <v>6101882</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6198676</v>
+        <v>6197449</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8871118018456147</v>
+        <v>0.8871118018456148</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8808385777075581</v>
+        <v>0.8797992785185412</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8937554830123312</v>
+        <v>0.8935786383608401</v>
       </c>
     </row>
     <row r="18">
